--- a/Herramientas y Documentacion/Equipo 3 - Atoms - Listado Funcionalidades.xlsx
+++ b/Herramientas y Documentacion/Equipo 3 - Atoms - Listado Funcionalidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12345"/>
+    <workbookView windowWidth="17160" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Funcionalidades</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Validación de datos de entrada</t>
+  </si>
+  <si>
+    <t>Respuesta detallada de errores</t>
   </si>
   <si>
     <t>Documentación de permisos</t>
@@ -127,11 +130,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +151,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -155,15 +180,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +197,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -179,52 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +250,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -269,31 +280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,37 +304,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,25 +436,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,115 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +513,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,15 +557,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -617,148 +613,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1084,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1264,7 +1260,9 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
